--- a/data/resumes_scrubbed/legislative_activity/101_2.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/101_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{D1CE43DD-3FCB-42DF-A882-53213F7C9B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4254EC8D-6AEA-4355-84B9-EA0325F6D819}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{D1CE43DD-3FCB-42DF-A882-53213F7C9B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1257244-2516-40D1-BC8D-AA185C4D7FD7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="101_2" sheetId="1" r:id="rId1"/>
@@ -709,6 +709,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1096,13 +1100,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="4">
-        <v>34270</v>
+        <v>33174</v>
       </c>
       <c r="C5" s="4">
-        <v>34270</v>
+        <v>33174</v>
       </c>
       <c r="D5" s="4">
-        <v>34270</v>
+        <v>33174</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
